--- a/outputs-r202/g__Ruminococcus_E.xlsx
+++ b/outputs-r202/g__Ruminococcus_E.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CA13"/>
+  <dimension ref="A1:CB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,6 +830,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1073,6 +1078,11 @@
           <t>s__Ruminococcus_E bromii_A</t>
         </is>
       </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E bromii_A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1316,6 +1326,11 @@
           <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900100595</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1559,6 +1574,11 @@
           <t>s__Ruminococcus_E sp900315605</t>
         </is>
       </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900315605</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1802,6 +1822,11 @@
           <t>s__Ruminococcus_E sp900315815</t>
         </is>
       </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900315815</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2045,6 +2070,11 @@
           <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900100595</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2288,6 +2318,11 @@
           <t>s__Ruminococcus_E sp900316815</t>
         </is>
       </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900316815</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2531,6 +2566,11 @@
           <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900100595</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2774,6 +2814,11 @@
           <t>s__Ruminococcus_E sp900317595</t>
         </is>
       </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900317595</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3017,6 +3062,11 @@
           <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900100595</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3260,6 +3310,11 @@
           <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
+      <c r="CB11" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900100595</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3503,6 +3558,11 @@
           <t>s__Ruminococcus_E sp900320415</t>
         </is>
       </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900320415</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3744,6 +3804,11 @@
       <c r="CA13" t="inlineStr">
         <is>
           <t>s__Ruminococcus_E sp900314705</t>
+        </is>
+      </c>
+      <c r="CB13" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900314705(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/g__Ruminococcus_E.xlsx
+++ b/outputs-r202/g__Ruminococcus_E.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CB13"/>
+  <dimension ref="A1:CA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,1249 +830,1219 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG105.fasta</t>
+          <t>RUG008.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.451494257674015e-13</v>
+        <v>2.520513869274018e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>0.9999747858590835</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>9.000082774256638e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>5.422960889230765e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.999999970030416</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>2.996741792801318e-08</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="U2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BI2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BK2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BL2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BN2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BP2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BQ2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BR2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BT2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BU2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BX2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BY2" t="n">
-        <v>2.220446048374662e-14</v>
+        <v>2.22044531263944e-14</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.999999970030416</v>
+        <v>0.9999747858590835</v>
       </c>
       <c r="CA2" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900100595</t>
-        </is>
-      </c>
-      <c r="CB2" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900100595</t>
+          <t>s__Ruminococcus_E bromii_A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG109.fasta</t>
+          <t>RUG105.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>5.451494257674015e-13</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>0.999999970030416</v>
       </c>
       <c r="R3" t="n">
-        <v>5.82175843421019e-05</v>
+        <v>2.996741792801318e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="U3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9999417824140147</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AU3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AY3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BB3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BC3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BE3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BF3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BG3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BH3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BI3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BJ3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BK3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BL3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BM3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BN3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BO3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BP3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BR3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BS3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BT3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BU3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BV3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BW3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BX3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BY3" t="n">
-        <v>2.220444348638049e-14</v>
+        <v>2.220446048374662e-14</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.9999417824140147</v>
+        <v>0.999999970030416</v>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900315605</t>
-        </is>
-      </c>
-      <c r="CB3" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900315605</t>
+          <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG135.fasta</t>
+          <t>RUG109.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.386744025179262e-13</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>3.651944577092675e-05</v>
+        <v>5.82175843421019e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="U4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>0.9999417824140147</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9999634805519696</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AU4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AW4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AY4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BN4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BO4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BR4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BS4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BV4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BW4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BY4" t="n">
-        <v>2.220444982400027e-14</v>
+        <v>2.220444348638049e-14</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.9999634805519696</v>
+        <v>0.9999417824140147</v>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900315815</t>
-        </is>
-      </c>
-      <c r="CB4" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900315815</t>
+          <t>s__Ruminococcus_E sp900315605</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG138.fasta</t>
+          <t>RUG135.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>6.386744025179262e-13</v>
       </c>
       <c r="C5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="O5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9999999734529907</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="R5" t="n">
-        <v>2.654456268613042e-08</v>
+        <v>3.651944577092675e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="U5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="V5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>0.9999634805519696</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AR5" t="n">
-        <v>8.25573201955806e-13</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AU5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BC5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BE5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BH5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BK5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BL5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BN5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BP5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BR5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BS5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BT5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BU5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BV5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BW5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BX5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BY5" t="n">
-        <v>2.22044604847466e-14</v>
+        <v>2.220444982400027e-14</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.9999999734529907</v>
+        <v>0.9999634805519696</v>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900100595</t>
-        </is>
-      </c>
-      <c r="CB5" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900100595</t>
+          <t>s__Ruminococcus_E sp900315815</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG230.fasta</t>
+          <t>RUG138.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>0.9999999734529907</v>
       </c>
       <c r="R6" t="n">
-        <v>6.046282051521944e-05</v>
+        <v>2.654456268613042e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="U6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="V6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.9999395371778418</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>8.25573201955806e-13</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AV6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AY6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BC6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BH6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BI6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BK6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BL6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BM6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BN6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BO6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BP6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BQ6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BR6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BS6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BT6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BU6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BV6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BW6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BY6" t="n">
-        <v>2.220444283063597e-14</v>
+        <v>2.22044604847466e-14</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.9999395371778418</v>
+        <v>0.9999999734529907</v>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900316815</t>
-        </is>
-      </c>
-      <c r="CB6" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900316815</t>
+          <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
     </row>
@@ -2318,255 +2288,245 @@
           <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
-      <c r="CB7" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900100595</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG449.fasta</t>
+          <t>RUG370.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.704510929936501e-12</v>
+        <v>3.556941144122621e-13</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9884055001655354</v>
+        <v>0.999999967614833</v>
       </c>
       <c r="R8" t="n">
-        <v>2.598639996279611e-08</v>
+        <v>3.238319030071801e-08</v>
       </c>
       <c r="S8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="U8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="V8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01159447384476163</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AL8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AV8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AW8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AX8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AY8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BA8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BB8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BC8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BD8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BE8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BF8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BG8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BH8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BI8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BJ8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BK8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BL8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BM8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BN8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BO8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BP8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BQ8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BR8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BS8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BT8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BU8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BV8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BW8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BX8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BY8" t="n">
-        <v>2.220230073867162e-14</v>
+        <v>2.220446048304087e-14</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.9884055001655354</v>
+        <v>0.999999967614833</v>
       </c>
       <c r="CA8" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900100595</t>
-        </is>
-      </c>
-      <c r="CB8" t="inlineStr">
         <is>
           <t>s__Ruminococcus_E sp900100595</t>
         </is>
@@ -2575,1240 +2535,486 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG581.fasta</t>
+          <t>RUG449.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.440568366487632e-11</v>
+        <v>1.704510929936501e-12</v>
       </c>
       <c r="C9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="M9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="O9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>0.9884055001655354</v>
       </c>
       <c r="R9" t="n">
-        <v>3.078400761002997e-06</v>
+        <v>2.598639996279611e-08</v>
       </c>
       <c r="S9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="T9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="V9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>0.01159447384476163</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.9999969215832124</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AY9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BA9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BC9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BD9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BG9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BH9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BI9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BK9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BL9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BM9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BN9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BO9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BP9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BQ9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BR9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BS9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BT9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BU9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BV9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BW9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BX9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BY9" t="n">
-        <v>2.22044595931085e-14</v>
+        <v>2.220230073867162e-14</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.9999969215832124</v>
+        <v>0.9884055001655354</v>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900320415</t>
-        </is>
-      </c>
-      <c r="CB9" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900320415</t>
+          <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG370.fasta</t>
+          <t>RUG581.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>1.440568366487632e-11</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="L10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="O10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.999999510173419</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="R10" t="n">
-        <v>1.629722655291158e-08</v>
+        <v>3.078400761002997e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="T10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="U10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="V10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>0.9999969215832124</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.735277333216156e-07</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AU10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AV10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AY10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BB10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BC10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BE10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BI10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BO10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BP10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BQ10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BR10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BS10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BT10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BU10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BV10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BW10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BX10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.220446034939318e-14</v>
+        <v>2.22044595931085e-14</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.999999510173419</v>
+        <v>0.9999969215832124</v>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>s__Ruminococcus_E sp900100595</t>
-        </is>
-      </c>
-      <c r="CB10" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900100595</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RUG449.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.999999832414436</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5.833133363364306e-08</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="X11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>1.092526092906247e-07</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>2.220446044354021e-14</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>0.999999832414436</v>
-      </c>
-      <c r="CA11" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900100595</t>
-        </is>
-      </c>
-      <c r="CB11" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900100595</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>RUG581.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="R12" t="n">
-        <v>7.971711575283433e-06</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="X12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.9999920282867815</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>2.220445816351089e-14</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>0.9999920282867815</v>
-      </c>
-      <c r="CA12" t="inlineStr">
-        <is>
           <t>s__Ruminococcus_E sp900320415</t>
-        </is>
-      </c>
-      <c r="CB12" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900320415</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>RUG672.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.06422191621787168</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.118929534033549e-13</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.001190574256389066</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.133087086813932</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.133087086813932</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="X13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0.133087086813932</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0.133087086813932</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0.133087086813932</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0.133087086813932</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0.001190574256389066</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0.133087086813932</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0.001787327570193242</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>2.37672318429366e-14</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0.133087086813932</v>
-      </c>
-      <c r="CA13" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705</t>
-        </is>
-      </c>
-      <c r="CB13" t="inlineStr">
-        <is>
-          <t>s__Ruminococcus_E sp900314705(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/g__Ruminococcus_E.xlsx
+++ b/outputs-r202/g__Ruminococcus_E.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CA10"/>
+  <dimension ref="A1:CB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,6 +830,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1073,6 +1078,11 @@
           <t>s__Ruminococcus_E bromii_A</t>
         </is>
       </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E bromii_A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1316,6 +1326,11 @@
           <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900100595</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1559,6 +1574,11 @@
           <t>s__Ruminococcus_E sp900315605</t>
         </is>
       </c>
+      <c r="CB4" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900315605</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1802,6 +1822,11 @@
           <t>s__Ruminococcus_E sp900315815</t>
         </is>
       </c>
+      <c r="CB5" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900315815</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2045,6 +2070,11 @@
           <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900100595</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2288,6 +2318,11 @@
           <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
+      <c r="CB7" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900100595</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2531,6 +2566,11 @@
           <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
+      <c r="CB8" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900100595</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2774,6 +2814,11 @@
           <t>s__Ruminococcus_E sp900100595</t>
         </is>
       </c>
+      <c r="CB9" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900100595</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3013,6 +3058,11 @@
         <v>0.9999969215832124</v>
       </c>
       <c r="CA10" t="inlineStr">
+        <is>
+          <t>s__Ruminococcus_E sp900320415</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
         <is>
           <t>s__Ruminococcus_E sp900320415</t>
         </is>
